--- a/contratos/contratos-10-2015.xlsx
+++ b/contratos/contratos-10-2015.xlsx
@@ -754,7 +754,7 @@
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -916,7 +916,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>CABRA RUBEN ANGEL</t>
@@ -1024,7 +1024,7 @@
     <t>TESTA CARLOS ALBERTO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1306,7 +1306,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>PINTURERIA COLORSHOP</t>
@@ -1504,667 +1504,667 @@
     <t>175</t>
   </si>
   <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>36.300,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>255.000,00</t>
-  </si>
-  <si>
-    <t>4.085,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>46.845,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>4.840,00</t>
-  </si>
-  <si>
-    <t>3.180,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>24.680,00</t>
-  </si>
-  <si>
-    <t>512.793,20</t>
-  </si>
-  <si>
-    <t>106.100,36</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>10.909,84</t>
-  </si>
-  <si>
-    <t>7.880,00</t>
-  </si>
-  <si>
-    <t>9.036,00</t>
-  </si>
-  <si>
-    <t>4.434,39</t>
-  </si>
-  <si>
-    <t>1.575,00</t>
-  </si>
-  <si>
-    <t>16.872,24</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>3.825,00</t>
-  </si>
-  <si>
-    <t>4.895,00</t>
-  </si>
-  <si>
-    <t>23.340,00</t>
-  </si>
-  <si>
-    <t>50,45</t>
-  </si>
-  <si>
-    <t>68.435,74</t>
-  </si>
-  <si>
-    <t>68,00</t>
-  </si>
-  <si>
-    <t>38.405,00</t>
-  </si>
-  <si>
-    <t>48.227,37</t>
-  </si>
-  <si>
-    <t>1.147,68</t>
-  </si>
-  <si>
-    <t>2.365,00</t>
-  </si>
-  <si>
-    <t>211,48</t>
-  </si>
-  <si>
-    <t>2.280,08</t>
-  </si>
-  <si>
-    <t>165.210,00</t>
-  </si>
-  <si>
-    <t>566,00</t>
-  </si>
-  <si>
-    <t>9,87</t>
-  </si>
-  <si>
-    <t>130,10</t>
-  </si>
-  <si>
-    <t>73,15</t>
-  </si>
-  <si>
-    <t>96.765,00</t>
-  </si>
-  <si>
-    <t>3.715,53</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>39.227,49</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>4.098,60</t>
-  </si>
-  <si>
-    <t>62,50</t>
-  </si>
-  <si>
-    <t>5.561,09</t>
-  </si>
-  <si>
-    <t>10.141,00</t>
-  </si>
-  <si>
-    <t>586,96</t>
-  </si>
-  <si>
-    <t>4.352,00</t>
-  </si>
-  <si>
-    <t>91,00</t>
-  </si>
-  <si>
-    <t>234,30</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>16,03</t>
-  </si>
-  <si>
-    <t>138,50</t>
-  </si>
-  <si>
-    <t>15.068,70</t>
-  </si>
-  <si>
-    <t>133.575,00</t>
-  </si>
-  <si>
-    <t>41.203,11</t>
-  </si>
-  <si>
-    <t>4.388,00</t>
-  </si>
-  <si>
-    <t>69,32</t>
-  </si>
-  <si>
-    <t>1.275,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>18.640,90</t>
-  </si>
-  <si>
-    <t>1.367,06</t>
-  </si>
-  <si>
-    <t>2.889,07</t>
-  </si>
-  <si>
-    <t>3.034,14</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>2.639,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>3.728,50</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>241.323,69</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>3.817,25</t>
-  </si>
-  <si>
-    <t>3.997,00</t>
-  </si>
-  <si>
-    <t>1.836,00</t>
-  </si>
-  <si>
-    <t>28.100,00</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>2.320,50</t>
-  </si>
-  <si>
-    <t>15.260,00</t>
-  </si>
-  <si>
-    <t>1.437,00</t>
-  </si>
-  <si>
-    <t>15.894,00</t>
-  </si>
-  <si>
-    <t>33.720,00</t>
-  </si>
-  <si>
-    <t>2.267,19</t>
-  </si>
-  <si>
-    <t>129,00</t>
-  </si>
-  <si>
-    <t>73.980,00</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>3.880,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>391.178,31</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>2.875,00</t>
-  </si>
-  <si>
-    <t>59,81</t>
-  </si>
-  <si>
-    <t>116,66</t>
-  </si>
-  <si>
-    <t>32.230,79</t>
-  </si>
-  <si>
-    <t>3.597,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>4.615,20</t>
-  </si>
-  <si>
-    <t>45,28</t>
-  </si>
-  <si>
-    <t>9.153,00</t>
-  </si>
-  <si>
-    <t>5.091,78</t>
-  </si>
-  <si>
-    <t>1.489,00</t>
-  </si>
-  <si>
-    <t>3.335,93</t>
-  </si>
-  <si>
-    <t>1.880,00</t>
-  </si>
-  <si>
-    <t>20.270,81</t>
-  </si>
-  <si>
-    <t>3.502,60</t>
-  </si>
-  <si>
-    <t>8.767,60</t>
-  </si>
-  <si>
-    <t>66,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>23.797,79</t>
-  </si>
-  <si>
-    <t>29,00</t>
-  </si>
-  <si>
-    <t>6.795,00</t>
-  </si>
-  <si>
-    <t>82,97</t>
-  </si>
-  <si>
-    <t>8.354,75</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>12.570,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>378,00</t>
-  </si>
-  <si>
-    <t>2.148,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>188.500,00</t>
-  </si>
-  <si>
-    <t>1.758,00</t>
-  </si>
-  <si>
-    <t>49.215,06</t>
-  </si>
-  <si>
-    <t>18.978,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>2.785,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>1.155,60</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>81,50</t>
-  </si>
-  <si>
-    <t>283,00</t>
-  </si>
-  <si>
-    <t>12.225,00</t>
-  </si>
-  <si>
-    <t>91,30</t>
-  </si>
-  <si>
-    <t>707.886,32</t>
-  </si>
-  <si>
-    <t>9.303,46</t>
-  </si>
-  <si>
-    <t>30.026,15</t>
-  </si>
-  <si>
-    <t>6.292,00</t>
-  </si>
-  <si>
-    <t>1.657,50</t>
-  </si>
-  <si>
-    <t>3.312,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>32.700,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>6.042,40</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>11.590,00</t>
-  </si>
-  <si>
-    <t>143,32</t>
-  </si>
-  <si>
-    <t>6.070,00</t>
-  </si>
-  <si>
-    <t>99,70</t>
-  </si>
-  <si>
-    <t>22.860,00</t>
-  </si>
-  <si>
-    <t>2.686,00</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>194,66</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>13.688,00</t>
-  </si>
-  <si>
-    <t>8.494,79</t>
-  </si>
-  <si>
-    <t>1.567,76</t>
-  </si>
-  <si>
-    <t>11.028,00</t>
-  </si>
-  <si>
-    <t>23,26</t>
-  </si>
-  <si>
-    <t>6.560,00</t>
-  </si>
-  <si>
-    <t>1.802,00</t>
-  </si>
-  <si>
-    <t>8.160,00</t>
-  </si>
-  <si>
-    <t>4.714,27</t>
-  </si>
-  <si>
-    <t>456,40</t>
-  </si>
-  <si>
-    <t>473,68</t>
-  </si>
-  <si>
-    <t>1.270,80</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>948,00</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>1.540,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>372.401,12</t>
-  </si>
-  <si>
-    <t>2.781,60</t>
-  </si>
-  <si>
-    <t>2.161,76</t>
-  </si>
-  <si>
-    <t>1.694.600,70</t>
-  </si>
-  <si>
-    <t>9.440,00</t>
-  </si>
-  <si>
-    <t>1.344.850,00</t>
-  </si>
-  <si>
-    <t>354.000,00</t>
-  </si>
-  <si>
-    <t>1.017.500,00</t>
-  </si>
-  <si>
-    <t>1.458.630,00</t>
-  </si>
-  <si>
-    <t>1.071.931,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>204.000,00</t>
-  </si>
-  <si>
-    <t>927.950,00</t>
-  </si>
-  <si>
-    <t>2.380.832,00</t>
-  </si>
-  <si>
-    <t>1.318.300,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>120.800,00</t>
-  </si>
-  <si>
-    <t>958.500,00</t>
-  </si>
-  <si>
-    <t>463.900,00</t>
-  </si>
-  <si>
-    <t>550.000,00</t>
-  </si>
-  <si>
-    <t>84.000,00</t>
-  </si>
-  <si>
-    <t>3.988,00</t>
-  </si>
-  <si>
-    <t>13.980,00</t>
-  </si>
-  <si>
-    <t>8.300,00</t>
-  </si>
-  <si>
-    <t>46.200,00</t>
-  </si>
-  <si>
-    <t>58.800,00</t>
-  </si>
-  <si>
-    <t>37,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>449.100,00</t>
-  </si>
-  <si>
-    <t>1.823,99</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>36300.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>255000.00</t>
+  </si>
+  <si>
+    <t>4085.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>46845.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>4840.00</t>
+  </si>
+  <si>
+    <t>3180.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>24680.00</t>
+  </si>
+  <si>
+    <t>512793.20</t>
+  </si>
+  <si>
+    <t>106100.36</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>10909.84</t>
+  </si>
+  <si>
+    <t>7880.00</t>
+  </si>
+  <si>
+    <t>9036.00</t>
+  </si>
+  <si>
+    <t>4434.39</t>
+  </si>
+  <si>
+    <t>1575.00</t>
+  </si>
+  <si>
+    <t>16872.24</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>3825.00</t>
+  </si>
+  <si>
+    <t>4895.00</t>
+  </si>
+  <si>
+    <t>23340.00</t>
+  </si>
+  <si>
+    <t>50.45</t>
+  </si>
+  <si>
+    <t>68435.74</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>38405.00</t>
+  </si>
+  <si>
+    <t>48227.37</t>
+  </si>
+  <si>
+    <t>1147.68</t>
+  </si>
+  <si>
+    <t>2365.00</t>
+  </si>
+  <si>
+    <t>211.48</t>
+  </si>
+  <si>
+    <t>2280.08</t>
+  </si>
+  <si>
+    <t>165210.00</t>
+  </si>
+  <si>
+    <t>566.00</t>
+  </si>
+  <si>
+    <t>9.87</t>
+  </si>
+  <si>
+    <t>130.10</t>
+  </si>
+  <si>
+    <t>73.15</t>
+  </si>
+  <si>
+    <t>96765.00</t>
+  </si>
+  <si>
+    <t>3715.53</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>39227.49</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>4098.60</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>5561.09</t>
+  </si>
+  <si>
+    <t>10141.00</t>
+  </si>
+  <si>
+    <t>586.96</t>
+  </si>
+  <si>
+    <t>4352.00</t>
+  </si>
+  <si>
+    <t>91.00</t>
+  </si>
+  <si>
+    <t>234.30</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>16.03</t>
+  </si>
+  <si>
+    <t>138.50</t>
+  </si>
+  <si>
+    <t>15068.70</t>
+  </si>
+  <si>
+    <t>133575.00</t>
+  </si>
+  <si>
+    <t>41203.11</t>
+  </si>
+  <si>
+    <t>4388.00</t>
+  </si>
+  <si>
+    <t>69.32</t>
+  </si>
+  <si>
+    <t>1275.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>18640.90</t>
+  </si>
+  <si>
+    <t>1367.06</t>
+  </si>
+  <si>
+    <t>2889.07</t>
+  </si>
+  <si>
+    <t>3034.14</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>2639.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>3728.50</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>241323.69</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>3817.25</t>
+  </si>
+  <si>
+    <t>3997.00</t>
+  </si>
+  <si>
+    <t>1836.00</t>
+  </si>
+  <si>
+    <t>28100.00</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>2320.50</t>
+  </si>
+  <si>
+    <t>15260.00</t>
+  </si>
+  <si>
+    <t>1437.00</t>
+  </si>
+  <si>
+    <t>15894.00</t>
+  </si>
+  <si>
+    <t>33720.00</t>
+  </si>
+  <si>
+    <t>2267.19</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>73980.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>3880.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>391178.31</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>2875.00</t>
+  </si>
+  <si>
+    <t>59.81</t>
+  </si>
+  <si>
+    <t>116.66</t>
+  </si>
+  <si>
+    <t>32230.79</t>
+  </si>
+  <si>
+    <t>3597.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>4615.20</t>
+  </si>
+  <si>
+    <t>45.28</t>
+  </si>
+  <si>
+    <t>9153.00</t>
+  </si>
+  <si>
+    <t>5091.78</t>
+  </si>
+  <si>
+    <t>1489.00</t>
+  </si>
+  <si>
+    <t>3335.93</t>
+  </si>
+  <si>
+    <t>1880.00</t>
+  </si>
+  <si>
+    <t>20270.81</t>
+  </si>
+  <si>
+    <t>3502.60</t>
+  </si>
+  <si>
+    <t>8767.60</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>23797.79</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>6795.00</t>
+  </si>
+  <si>
+    <t>82.97</t>
+  </si>
+  <si>
+    <t>8354.75</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>12570.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>2148.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>188500.00</t>
+  </si>
+  <si>
+    <t>1758.00</t>
+  </si>
+  <si>
+    <t>49215.06</t>
+  </si>
+  <si>
+    <t>18978.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>2785.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>1155.60</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>81.50</t>
+  </si>
+  <si>
+    <t>283.00</t>
+  </si>
+  <si>
+    <t>12225.00</t>
+  </si>
+  <si>
+    <t>91.30</t>
+  </si>
+  <si>
+    <t>707886.32</t>
+  </si>
+  <si>
+    <t>9303.46</t>
+  </si>
+  <si>
+    <t>30026.15</t>
+  </si>
+  <si>
+    <t>6292.00</t>
+  </si>
+  <si>
+    <t>1657.50</t>
+  </si>
+  <si>
+    <t>3312.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>32700.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>6042.40</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>11590.00</t>
+  </si>
+  <si>
+    <t>143.32</t>
+  </si>
+  <si>
+    <t>6070.00</t>
+  </si>
+  <si>
+    <t>99.70</t>
+  </si>
+  <si>
+    <t>22860.00</t>
+  </si>
+  <si>
+    <t>2686.00</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>194.66</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>13688.00</t>
+  </si>
+  <si>
+    <t>8494.79</t>
+  </si>
+  <si>
+    <t>1567.76</t>
+  </si>
+  <si>
+    <t>11028.00</t>
+  </si>
+  <si>
+    <t>23.26</t>
+  </si>
+  <si>
+    <t>6560.00</t>
+  </si>
+  <si>
+    <t>1802.00</t>
+  </si>
+  <si>
+    <t>8160.00</t>
+  </si>
+  <si>
+    <t>4714.27</t>
+  </si>
+  <si>
+    <t>456.40</t>
+  </si>
+  <si>
+    <t>473.68</t>
+  </si>
+  <si>
+    <t>1270.80</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>948.00</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>1540.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>372401.12</t>
+  </si>
+  <si>
+    <t>2781.60</t>
+  </si>
+  <si>
+    <t>2161.76</t>
+  </si>
+  <si>
+    <t>1694600.70</t>
+  </si>
+  <si>
+    <t>9440.00</t>
+  </si>
+  <si>
+    <t>1344850.00</t>
+  </si>
+  <si>
+    <t>354000.00</t>
+  </si>
+  <si>
+    <t>1017500.00</t>
+  </si>
+  <si>
+    <t>1458630.00</t>
+  </si>
+  <si>
+    <t>1071931.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>204000.00</t>
+  </si>
+  <si>
+    <t>927950.00</t>
+  </si>
+  <si>
+    <t>2380832.00</t>
+  </si>
+  <si>
+    <t>1318300.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>120800.00</t>
+  </si>
+  <si>
+    <t>958500.00</t>
+  </si>
+  <si>
+    <t>463900.00</t>
+  </si>
+  <si>
+    <t>550000.00</t>
+  </si>
+  <si>
+    <t>84000.00</t>
+  </si>
+  <si>
+    <t>3988.00</t>
+  </si>
+  <si>
+    <t>13980.00</t>
+  </si>
+  <si>
+    <t>8300.00</t>
+  </si>
+  <si>
+    <t>46200.00</t>
+  </si>
+  <si>
+    <t>58800.00</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>449100.00</t>
+  </si>
+  <si>
+    <t>1823.99</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
   </si>
 </sst>
 </file>
